--- a/Second semester/neural network/HW1/lbl9.xlsx
+++ b/Second semester/neural network/HW1/lbl9.xlsx
@@ -529,7 +529,7 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -719,7 +719,7 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:1">
@@ -1379,7 +1379,7 @@
     </row>
     <row r="202" spans="1:1">
       <c r="A202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:1">
@@ -1424,7 +1424,7 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:1">
@@ -1914,7 +1914,7 @@
     </row>
     <row r="309" spans="1:1">
       <c r="A309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:1">
@@ -1994,7 +1994,7 @@
     </row>
     <row r="325" spans="1:1">
       <c r="A325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:1">
@@ -2679,7 +2679,7 @@
     </row>
     <row r="462" spans="1:1">
       <c r="A462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:1">
@@ -3119,7 +3119,7 @@
     </row>
     <row r="550" spans="1:1">
       <c r="A550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:1">
@@ -3439,7 +3439,7 @@
     </row>
     <row r="614" spans="1:1">
       <c r="A614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:1">
@@ -3569,7 +3569,7 @@
     </row>
     <row r="640" spans="1:1">
       <c r="A640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:1">
@@ -3944,7 +3944,7 @@
     </row>
     <row r="715" spans="1:1">
       <c r="A715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:1">
@@ -3954,7 +3954,7 @@
     </row>
     <row r="717" spans="1:1">
       <c r="A717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:1">
@@ -4044,7 +4044,7 @@
     </row>
     <row r="735" spans="1:1">
       <c r="A735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:1">
@@ -4054,7 +4054,7 @@
     </row>
     <row r="737" spans="1:1">
       <c r="A737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:1">
@@ -4074,7 +4074,7 @@
     </row>
     <row r="741" spans="1:1">
       <c r="A741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:1">
@@ -4104,7 +4104,7 @@
     </row>
     <row r="747" spans="1:1">
       <c r="A747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:1">
@@ -4119,7 +4119,7 @@
     </row>
     <row r="750" spans="1:1">
       <c r="A750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:1">
@@ -4159,7 +4159,7 @@
     </row>
     <row r="758" spans="1:1">
       <c r="A758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:1">
@@ -4199,7 +4199,7 @@
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:1">
@@ -4264,7 +4264,7 @@
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:1">
@@ -4274,7 +4274,7 @@
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:1">
@@ -4359,7 +4359,7 @@
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:1">
@@ -4424,7 +4424,7 @@
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:1">
@@ -4454,7 +4454,7 @@
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:1">
@@ -4499,7 +4499,7 @@
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:1">
@@ -4519,7 +4519,7 @@
     </row>
     <row r="830" spans="1:1">
       <c r="A830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:1">
@@ -4579,7 +4579,7 @@
     </row>
     <row r="842" spans="1:1">
       <c r="A842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:1">
@@ -4594,7 +4594,7 @@
     </row>
     <row r="845" spans="1:1">
       <c r="A845">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:1">
@@ -4654,7 +4654,7 @@
     </row>
     <row r="857" spans="1:1">
       <c r="A857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:1">
@@ -4664,12 +4664,12 @@
     </row>
     <row r="859" spans="1:1">
       <c r="A859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:1">
@@ -4694,7 +4694,7 @@
     </row>
     <row r="865" spans="1:1">
       <c r="A865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:1">
@@ -4709,7 +4709,7 @@
     </row>
     <row r="868" spans="1:1">
       <c r="A868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:1">
@@ -4719,7 +4719,7 @@
     </row>
     <row r="870" spans="1:1">
       <c r="A870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:1">
@@ -4744,7 +4744,7 @@
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:1">
@@ -4889,7 +4889,7 @@
     </row>
     <row r="904" spans="1:1">
       <c r="A904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:1">
@@ -4919,7 +4919,7 @@
     </row>
     <row r="910" spans="1:1">
       <c r="A910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:1">
@@ -4949,7 +4949,7 @@
     </row>
     <row r="916" spans="1:1">
       <c r="A916">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:1">
@@ -5119,7 +5119,7 @@
     </row>
     <row r="950" spans="1:1">
       <c r="A950">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:1">
@@ -5134,7 +5134,7 @@
     </row>
     <row r="953" spans="1:1">
       <c r="A953">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:1">
@@ -5704,7 +5704,7 @@
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
@@ -5759,7 +5759,7 @@
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
@@ -6219,7 +6219,7 @@
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
@@ -6669,7 +6669,7 @@
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
@@ -6769,7 +6769,7 @@
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
@@ -6779,7 +6779,7 @@
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
@@ -6799,7 +6799,7 @@
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
@@ -6904,7 +6904,7 @@
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
@@ -6934,7 +6934,7 @@
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
@@ -6989,7 +6989,7 @@
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
@@ -7159,7 +7159,7 @@
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
@@ -7179,7 +7179,7 @@
     </row>
     <row r="1362" spans="1:1">
       <c r="A1362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
@@ -7279,7 +7279,7 @@
     </row>
     <row r="1382" spans="1:1">
       <c r="A1382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1383" spans="1:1">
@@ -7319,7 +7319,7 @@
     </row>
     <row r="1390" spans="1:1">
       <c r="A1390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1391" spans="1:1">
@@ -7484,7 +7484,7 @@
     </row>
     <row r="1423" spans="1:1">
       <c r="A1423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
@@ -7499,7 +7499,7 @@
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
@@ -7574,7 +7574,7 @@
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
@@ -7749,7 +7749,7 @@
     </row>
     <row r="1476" spans="1:1">
       <c r="A1476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1477" spans="1:1">
@@ -8004,7 +8004,7 @@
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
@@ -8504,47 +8504,47 @@
     </row>
     <row r="1627" spans="1:1">
       <c r="A1627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1628" spans="1:1">
       <c r="A1628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1629" spans="1:1">
       <c r="A1629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1630" spans="1:1">
       <c r="A1630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1631" spans="1:1">
       <c r="A1631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1632" spans="1:1">
       <c r="A1632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1633" spans="1:1">
       <c r="A1633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1634" spans="1:1">
       <c r="A1634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1635" spans="1:1">
       <c r="A1635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1636" spans="1:1">
@@ -8554,7 +8554,7 @@
     </row>
     <row r="1637" spans="1:1">
       <c r="A1637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1638" spans="1:1">
@@ -8574,7 +8574,7 @@
     </row>
     <row r="1641" spans="1:1">
       <c r="A1641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1642" spans="1:1">
@@ -8589,7 +8589,7 @@
     </row>
     <row r="1644" spans="1:1">
       <c r="A1644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1645" spans="1:1">
@@ -8604,12 +8604,12 @@
     </row>
     <row r="1647" spans="1:1">
       <c r="A1647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1648" spans="1:1">
       <c r="A1648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1649" spans="1:1">
@@ -8624,7 +8624,7 @@
     </row>
     <row r="1651" spans="1:1">
       <c r="A1651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1652" spans="1:1">
@@ -8674,7 +8674,7 @@
     </row>
     <row r="1661" spans="1:1">
       <c r="A1661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1662" spans="1:1">
@@ -8694,7 +8694,7 @@
     </row>
     <row r="1665" spans="1:1">
       <c r="A1665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1666" spans="1:1">
@@ -8704,7 +8704,7 @@
     </row>
     <row r="1667" spans="1:1">
       <c r="A1667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1668" spans="1:1">
@@ -8714,7 +8714,7 @@
     </row>
     <row r="1669" spans="1:1">
       <c r="A1669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1670" spans="1:1">
@@ -8744,17 +8744,17 @@
     </row>
     <row r="1675" spans="1:1">
       <c r="A1675">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1676" spans="1:1">
       <c r="A1676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1677" spans="1:1">
       <c r="A1677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1678" spans="1:1">
@@ -8769,7 +8769,7 @@
     </row>
     <row r="1680" spans="1:1">
       <c r="A1680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1681" spans="1:1">
@@ -8794,7 +8794,7 @@
     </row>
     <row r="1685" spans="1:1">
       <c r="A1685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1686" spans="1:1">
@@ -8824,7 +8824,7 @@
     </row>
     <row r="1691" spans="1:1">
       <c r="A1691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1692" spans="1:1">
@@ -8834,7 +8834,7 @@
     </row>
     <row r="1693" spans="1:1">
       <c r="A1693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1694" spans="1:1">
@@ -8844,7 +8844,7 @@
     </row>
     <row r="1695" spans="1:1">
       <c r="A1695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1696" spans="1:1">
@@ -8859,7 +8859,7 @@
     </row>
     <row r="1698" spans="1:1">
       <c r="A1698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1699" spans="1:1">
@@ -8869,12 +8869,12 @@
     </row>
     <row r="1700" spans="1:1">
       <c r="A1700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1701" spans="1:1">
       <c r="A1701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1702" spans="1:1">
@@ -8889,12 +8889,12 @@
     </row>
     <row r="1704" spans="1:1">
       <c r="A1704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1705" spans="1:1">
       <c r="A1705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1706" spans="1:1">
@@ -8909,17 +8909,17 @@
     </row>
     <row r="1708" spans="1:1">
       <c r="A1708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1709" spans="1:1">
       <c r="A1709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1710" spans="1:1">
       <c r="A1710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1711" spans="1:1">
@@ -8974,7 +8974,7 @@
     </row>
     <row r="1721" spans="1:1">
       <c r="A1721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1722" spans="1:1">
@@ -8994,7 +8994,7 @@
     </row>
     <row r="1725" spans="1:1">
       <c r="A1725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1726" spans="1:1">
@@ -9054,7 +9054,7 @@
     </row>
     <row r="1737" spans="1:1">
       <c r="A1737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1738" spans="1:1">
@@ -9069,12 +9069,12 @@
     </row>
     <row r="1740" spans="1:1">
       <c r="A1740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1741" spans="1:1">
       <c r="A1741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1742" spans="1:1">
@@ -9084,7 +9084,7 @@
     </row>
     <row r="1743" spans="1:1">
       <c r="A1743">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1744" spans="1:1">
@@ -9109,7 +9109,7 @@
     </row>
     <row r="1748" spans="1:1">
       <c r="A1748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1749" spans="1:1">
@@ -9134,7 +9134,7 @@
     </row>
     <row r="1753" spans="1:1">
       <c r="A1753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1754" spans="1:1">
@@ -9169,7 +9169,7 @@
     </row>
     <row r="1760" spans="1:1">
       <c r="A1760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1761" spans="1:1">
@@ -9179,12 +9179,12 @@
     </row>
     <row r="1762" spans="1:1">
       <c r="A1762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1763" spans="1:1">
       <c r="A1763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1764" spans="1:1">
@@ -9214,7 +9214,7 @@
     </row>
     <row r="1769" spans="1:1">
       <c r="A1769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1770" spans="1:1">
@@ -9234,17 +9234,17 @@
     </row>
     <row r="1773" spans="1:1">
       <c r="A1773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1774" spans="1:1">
       <c r="A1774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1775" spans="1:1">
       <c r="A1775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1776" spans="1:1">
@@ -9314,7 +9314,7 @@
     </row>
     <row r="1789" spans="1:1">
       <c r="A1789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1790" spans="1:1">
@@ -9329,12 +9329,12 @@
     </row>
     <row r="1792" spans="1:1">
       <c r="A1792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1793" spans="1:1">
       <c r="A1793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1794" spans="1:1">
@@ -9359,12 +9359,12 @@
     </row>
     <row r="1798" spans="1:1">
       <c r="A1798">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1799" spans="1:1">
       <c r="A1799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1800" spans="1:1">
@@ -9374,7 +9374,7 @@
     </row>
     <row r="1801" spans="1:1">
       <c r="A1801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
